--- a/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{973E3B46-042F-43F0-8619-19C17EDC19D1}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E09F211-354A-46F6-A4C0-1B360D3ACC22}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -736,14 +736,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1061,8 +1062,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,19 +1082,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7"/>
@@ -1540,13 +1541,13 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1593,7 +1594,7 @@
       <c r="D46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1609,36 +1610,42 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="9" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1807,13 +1814,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="9" t="s">
+      <c r="D66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>172</v>
       </c>
     </row>

--- a/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E09F211-354A-46F6-A4C0-1B360D3ACC22}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{060C14C6-42F8-4A3F-AC40-22A2E7B6C6FD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="207">
   <si>
     <t>Object</t>
   </si>
@@ -631,27 +631,47 @@
     <t>ZaakLOBehandeld</t>
   </si>
   <si>
+    <t>1-Geen 2-Hoog 3-Commercieel</t>
+  </si>
+  <si>
+    <t>IndicatieHuur</t>
+  </si>
+  <si>
+    <t>IndicatieInDetentie</t>
+  </si>
+  <si>
+    <t>IndicatieInstellingVolledigVerzorgd</t>
+  </si>
+  <si>
+    <t>geel gemarkeerd = nieuw t.o.v.0.93</t>
+  </si>
+  <si>
+    <t>V0.94</t>
+  </si>
+  <si>
+    <t>Alimentatie</t>
+  </si>
+  <si>
+    <t>InkomstensoortAlimentatie</t>
+  </si>
+  <si>
+    <t>1-Alimentatie ex-echtgenote/echtgenootg (geindexeerd) 2-Alimentatie ex-echtgenote/echtgenootg (niet geindexeerd) 3-Alimentatie kinderen (geindexeerd) 4-Alimentatie kinderen (niet geindexeerd)</t>
+  </si>
+  <si>
+    <t>Pensioen</t>
+  </si>
+  <si>
+    <t>InkomstensoortPensioen</t>
+  </si>
+  <si>
+    <t>1-Bedrijfspensioen 2-Buitenlands pensioen 3-Pensioen ivm oorlog 4-Invaliditeitspensioen 5-Nabestaandepensioen (weduwe/weduwnaar) 6-Nabestaandepensioen (wezen)</t>
+  </si>
+  <si>
     <t>OneOf: 
 BetaaldWerk
-Uitkering</t>
-  </si>
-  <si>
-    <t>1-Geen 2-Hoog 3-Commercieel</t>
-  </si>
-  <si>
-    <t>IndicatieHuur</t>
-  </si>
-  <si>
-    <t>IndicatieInDetentie</t>
-  </si>
-  <si>
-    <t>IndicatieInstellingVolledigVerzorgd</t>
-  </si>
-  <si>
-    <t>geel gemarkeerd = nieuw t.o.v.0.93</t>
-  </si>
-  <si>
-    <t>V0.94</t>
+Uitkering
+Alimentatie
+Pensioen</t>
   </si>
 </sst>
 </file>
@@ -744,7 +764,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1060,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B90832-9B45-4A7C-8E70-F9E2CC066ECE}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,10 +1114,10 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1238,79 +1260,83 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>119</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>179</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>122</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
@@ -1320,79 +1346,81 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>125</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>35</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
@@ -1401,16 +1429,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>4</v>
@@ -1419,53 +1447,51 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="D32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>172</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>4</v>
@@ -1476,389 +1502,388 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>111</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="8" t="s">
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="12"/>
       <c r="F49" s="8" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="12"/>
       <c r="F50" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="B51" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="D54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>81</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>81</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
         <v>131</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="8" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="D67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>55</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>46</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>5</v>
@@ -1867,28 +1892,28 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>61</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>45</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>43</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>4</v>
@@ -1897,25 +1922,25 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>4</v>
@@ -1924,16 +1949,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>5</v>
@@ -1942,30 +1967,28 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>40</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="D80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>133</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>9</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
-        <v>10</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>5</v>
@@ -1976,7 +1999,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>5</v>
@@ -1987,7 +2010,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
@@ -1998,89 +2021,93 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1</v>
-      </c>
-      <c r="F84" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="D86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>2</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>134</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>21</v>
@@ -2089,7 +2116,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>5</v>
@@ -2098,236 +2125,229 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>160</v>
-      </c>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>131</v>
+      </c>
       <c r="B100" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>74</v>
+        <v>116</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>161</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F104" t="s">
-        <v>162</v>
-      </c>
+      <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
         <v>137</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>137</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>78</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>138</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>75</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>63</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E109" t="s">
         <v>91</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F109" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>58</v>
@@ -2336,114 +2356,120 @@
         <v>91</v>
       </c>
       <c r="F112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>81</v>
-      </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="F113" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>91</v>
+      </c>
+      <c r="F114" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>81</v>
+      </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>172</v>
+        <v>58</v>
+      </c>
+      <c r="E116" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" t="s">
+        <v>177</v>
+      </c>
+      <c r="F117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="D119" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>126</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>141</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="D120" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>137</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>142</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
+      <c r="D121" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
         <v>13</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>105</v>
-      </c>
-      <c r="B122" t="s">
-        <v>53</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>4</v>
@@ -2451,15 +2477,21 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>105</v>
+      </c>
       <c r="B124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>4</v>
@@ -2467,7 +2499,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>4</v>
@@ -2475,7 +2507,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>4</v>
@@ -2483,7 +2515,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>4</v>
@@ -2491,7 +2523,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>4</v>
@@ -2499,18 +2531,15 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>60</v>
-      </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>4</v>
@@ -2518,112 +2547,109 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E131" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>60</v>
+      </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E132" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E134" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E135" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
-      </c>
-      <c r="F137" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>144</v>
-      </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" t="s">
-        <v>172</v>
+        <v>58</v>
+      </c>
+      <c r="E138" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>95</v>
       </c>
       <c r="F139" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>4</v>
@@ -2634,59 +2660,62 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>77</v>
-      </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
         <v>114</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B144" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>106</v>
-      </c>
-      <c r="B145" t="s">
-        <v>24</v>
-      </c>
       <c r="D145" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>4</v>
@@ -2694,50 +2723,69 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>193</v>
+      </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>124</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
         <v>151</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{060C14C6-42F8-4A3F-AC40-22A2E7B6C6FD}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C31C5A-E975-4069-9678-D83D93ABFBA8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="207">
   <si>
     <t>Object</t>
   </si>
@@ -761,11 +761,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B90832-9B45-4A7C-8E70-F9E2CC066ECE}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,13 +1104,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2069,66 +2069,67 @@
         <v>203</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="8" t="s">
+      <c r="D90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>2</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>79</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>21</v>
@@ -2137,7 +2138,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>5</v>
@@ -2146,236 +2147,229 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>160</v>
-      </c>
+      <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>77</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
       <c r="B102" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>74</v>
+        <v>116</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>161</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F106" t="s">
-        <v>162</v>
-      </c>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
         <v>137</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>137</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>78</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>138</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>75</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E111" t="s">
         <v>91</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F111" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
-        <v>181</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>58</v>
@@ -2384,114 +2378,120 @@
         <v>91</v>
       </c>
       <c r="F114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>81</v>
-      </c>
       <c r="B115" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E115" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="F115" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>91</v>
+      </c>
+      <c r="F116" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E117" t="s">
-        <v>177</v>
-      </c>
-      <c r="F117" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>172</v>
+        <v>58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
         <v>69</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="D121" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>126</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="D122" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>137</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
+      <c r="D123" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
         <v>13</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B123" t="s">
-        <v>143</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>105</v>
-      </c>
-      <c r="B124" t="s">
-        <v>53</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>4</v>
@@ -2499,15 +2499,21 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>105</v>
+      </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>4</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>4</v>
@@ -2523,7 +2529,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>4</v>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>4</v>
@@ -2539,7 +2545,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>4</v>
@@ -2547,18 +2553,15 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>60</v>
-      </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>4</v>
@@ -2566,112 +2569,109 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>60</v>
+      </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E134" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E136" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E138" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E139" t="s">
-        <v>95</v>
-      </c>
-      <c r="F139" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>144</v>
-      </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" t="s">
-        <v>172</v>
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>95</v>
       </c>
       <c r="F141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>4</v>
@@ -2682,110 +2682,132 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
+        <v>122</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
         <v>146</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="D145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>77</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
         <v>147</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="D146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B145" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
         <v>114</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B146" t="s">
+      <c r="D147" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="D148" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>106</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B149" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B148" t="s">
+      <c r="D149" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
         <v>23</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="D150" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>193</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
         <v>188</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B150" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
         <v>148</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C152" t="s">
         <v>124</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E152" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B151" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
         <v>149</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B152" t="s">
+      <c r="D153" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
         <v>150</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B153" t="s">
+      <c r="D154" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
         <v>151</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.94-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C31C5A-E975-4069-9678-D83D93ABFBA8}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD0F7C3-9A85-4C75-85AF-0E97AB2981EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
@@ -631,9 +631,6 @@
     <t>ZaakLOBehandeld</t>
   </si>
   <si>
-    <t>1-Geen 2-Hoog 3-Commercieel</t>
-  </si>
-  <si>
     <t>IndicatieHuur</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
 Uitkering
 Alimentatie
 Pensioen</t>
+  </si>
+  <si>
+    <t>1-Geen 2-Laag 3-Commercieel</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1261,17 +1261,17 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1648,19 +1648,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
@@ -1672,7 +1672,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9" t="s">
@@ -2066,7 +2066,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>122</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2257,7 +2257,7 @@
         <v>116</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>21</v>
